--- a/biology/Botanique/Andromeda_(genre)/Andromeda_(genre).xlsx
+++ b/biology/Botanique/Andromeda_(genre)/Andromeda_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andromeda est un genre de plantes à fleurs de la famille des Ericaceae.
 Il ne comprend aujourd'hui qu'une seule espèce en son sein, Andromeda polifolia L.. 
@@ -514,7 +526,9 @@
           <t>Espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Andromeda polifolia</t>
         </is>
@@ -546,52 +560,499 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vers Agarista
-Pour Andromeda populifolia Lam., voir Agarista populifolia (Lam.) Judd
-Vers Cassiope
-Pour Andromeda fastigiata Wall., voir Cassiope fastigiata (Wall.) D.Don
+          <t>Vers Agarista</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour Andromeda populifolia Lam., voir Agarista populifolia (Lam.) Judd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vers Cassiope</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pour Andromeda fastigiata Wall., voir Cassiope fastigiata (Wall.) D.Don
 Pour Andromeda lycopodioides Pall., voir Cassiope lycopodioides (Pall.) D.Don
 Pour Andromeda mertensiana Bong., voir Cassiope mertensiana (Bong.) G.Don
-Pour Andromeda tetragona L., voir Cassiope tetragona (L.) D.Don
-Vers Chamaedaphne
-Pour Andromeda calyculata L., voir Chamaedaphne calyculata (L.) Moench
-Vers Daboecia
-Pour Andromeda daboecia (L.) L., voir Daboecia cantabrica (Huds.) K.Koch
-Vers Enkianthus
-Pour Andromeda campanulata Miq., voir Enkianthus campanulatus (Miq.) G.Nicholson
+Pour Andromeda tetragona L., voir Cassiope tetragona (L.) D.Don</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vers Chamaedaphne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pour Andromeda calyculata L., voir Chamaedaphne calyculata (L.) Moench</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vers Daboecia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour Andromeda daboecia (L.) L., voir Daboecia cantabrica (Huds.) K.Koch</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vers Enkianthus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pour Andromeda campanulata Miq., voir Enkianthus campanulatus (Miq.) G.Nicholson
 Pour Andromeda cernua (Siebold &amp; Zucc.) Miq., voir Enkianthus cernuus (Siebold &amp; Zucc.) Benth. &amp; Hook.f. ex Makino
-Pour Andromeda perulata Miq., voir Enkianthus perulatus (Miq.) C.K.Schneid.
-Vers Gaultheria
-Pour Andromeda adenothrix Miq., voir Gaultheria adenothrix (Miq.) Maxim.
+Pour Andromeda perulata Miq., voir Enkianthus perulatus (Miq.) C.K.Schneid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vers Gaultheria</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pour Andromeda adenothrix Miq., voir Gaultheria adenothrix (Miq.) Maxim.
 Pour Andromeda glomerata Cav., voir Gaultheria glomerata (Cav.) Sleumer
-Pour Andromeda rupestris L.f., voir Gaultheria rupestris (L.f.) D.Don
-Vers Gaylussacia
-Pour Andromeda baccata Wangenh., voir Gaylussacia baccata (Wangenh.) K.Koch
-Vers Harrimanella
-Pour Andromeda stelleriana Pall., voir Harrimanella stelleriana (Pall.) Coville
-Vers Leucothoe
-Pour Andromeda axillaris Lam., voir Leucothoe axillaris (Lam.) D.Don
+Pour Andromeda rupestris L.f., voir Gaultheria rupestris (L.f.) D.Don</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vers Gaylussacia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pour Andromeda baccata Wangenh., voir Gaylussacia baccata (Wangenh.) K.Koch</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vers Harrimanella</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pour Andromeda stelleriana Pall., voir Harrimanella stelleriana (Pall.) Coville</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vers Leucothoe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pour Andromeda axillaris Lam., voir Leucothoe axillaris (Lam.) D.Don
 Pour Andromeda catesbaei Walter, voir Leucothoe axillaris (Lam.) D.Don
 Pour Andromeda racemosa L., voir Leucothoe racemosa (L.) A.Gray
 Pour Andromeda recurva Buckley, voir Leucothoe recurva (Buckley) A.Gray
-Pour Andromeda walteri Willd., voir Leucothoe axillaris (Lam.) D.Don
-Vers Lyonia
-Pour Andromeda elliptica Siebold &amp; Zucc., voir Lyonia ovalifolia var. elliptica (Siebold &amp; Zucc.) Hand.-Mazz.
+Pour Andromeda walteri Willd., voir Leucothoe axillaris (Lam.) D.Don</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vers Lyonia</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pour Andromeda elliptica Siebold &amp; Zucc., voir Lyonia ovalifolia var. elliptica (Siebold &amp; Zucc.) Hand.-Mazz.
 Pour Andromeda ferruginea Walter, voir Lyonia ferruginea (Walter) Nutt.
 Pour Andromeda lucida Lam., voir Lyonia lucida (Lam.) K.Koch
 Pour Andromeda mariana L., voir Lyonia mariana (L.) D.Don
 Pour Andromeda nitida W.Bartram ex Marshall, voir Lyonia lucida (Lam.) K.Koch
-Pour Andromeda ovalifolia Wall., voir Lyonia ovalifolia (Wall.) Drude
-Vers Oxydendrum
-Pour Andromeda arborea L., voir Oxydendrum arboreum (L.) DC.
-Vers Phyllodoce
-Pour Andromeda caerulea L., voir Phyllodoce caerulea (L.) Bab.
-Vers Pieris
-Pour Andromeda formosa Wall., voir Pieris formosa (Wall.) D.Don
+Pour Andromeda ovalifolia Wall., voir Lyonia ovalifolia (Wall.) Drude</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vers Oxydendrum</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pour Andromeda arborea L., voir Oxydendrum arboreum (L.) DC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vers Phyllodoce</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pour Andromeda caerulea L., voir Phyllodoce caerulea (L.) Bab.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vers Pieris</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Pour Andromeda formosa Wall., voir Pieris formosa (Wall.) D.Don
 Pour Andromeda japonica Thunb., voir Pieris japonica (Thunb.) D.Don ex G.Don
-Pour Andromeda nana Maxim., voir Pieris nana (Maxim.) Makino
-Vers Zenobia
-Pour Andromeda cassinefolia Vent., voir Zenobia pulverulenta (W.Bartram ex Willd.) Pollard
+Pour Andromeda nana Maxim., voir Pieris nana (Maxim.) Makino</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andromeda_(genre)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers un autre genre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vers Zenobia</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pour Andromeda cassinefolia Vent., voir Zenobia pulverulenta (W.Bartram ex Willd.) Pollard
 Pour Andromeda speciosa Michx., voir Zenobia pulverulenta (W.Bartram ex Willd.) Pollard</t>
         </is>
       </c>
